--- a/backend/main/resources/Terminübersicht 2021 Kopie.xlsx
+++ b/backend/main/resources/Terminübersicht 2021 Kopie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximilianfuchs/Desktop/Projekte/zeltverleihreactbuchungssystem/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximilianfuchs/Desktop/Projekte/fdfgd/zeltverleih/backend/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62865E1-FB2F-1E42-AABB-F1D7DE9C1EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D367D14-A43A-A041-BB72-CE117E202AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34400" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buchungen" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="109">
   <si>
     <t>Angebot vom</t>
   </si>
@@ -313,15 +313,6 @@
     <t>Aufbau</t>
   </si>
   <si>
-    <t>Schuite &amp; Schuite Druckfarben GmbH</t>
-  </si>
-  <si>
-    <t>+49 3628 - 5815 207</t>
-  </si>
-  <si>
-    <t>m.bachmann@s-s-inks.de</t>
-  </si>
-  <si>
     <t>Selbstabholung</t>
   </si>
   <si>
@@ -329,9 +320,6 @@
   </si>
   <si>
     <t>Summe</t>
-  </si>
-  <si>
-    <t>glaeser.stephanie@t-online.de</t>
   </si>
   <si>
     <t>Straße</t>
@@ -346,631 +334,7 @@
     <t>Ort</t>
   </si>
   <si>
-    <t xml:space="preserve">Tom Müller </t>
-  </si>
-  <si>
-    <t>1708241979</t>
-  </si>
-  <si>
-    <t>muellertom1990@gmx.net</t>
-  </si>
-  <si>
-    <t>Konrad Schöller</t>
-  </si>
-  <si>
-    <t>0531 1228087</t>
-  </si>
-  <si>
-    <t>konrad.schoeller@googlemail.com</t>
-  </si>
-  <si>
-    <t>Thüringer Bauernverband, Katja Förster</t>
-  </si>
-  <si>
-    <t>0177 71 13 974</t>
-  </si>
-  <si>
-    <t>katja.foerster@tbv-erfurt.de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frau Böttger </t>
-  </si>
-  <si>
-    <t>0173/6439841</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>Manuel Glockenmeier</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 01575 9180496</t>
-  </si>
-  <si>
-    <t>manuelglockenmeier@gmx.de</t>
-  </si>
-  <si>
-    <t>Stephan Schleyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0173/5768773</t>
-  </si>
-  <si>
-    <t>stephanschleyer@gmx.de</t>
-  </si>
-  <si>
-    <t>Marco Kresse</t>
-  </si>
-  <si>
-    <t>15142620209</t>
-  </si>
-  <si>
-    <t>marcokresse@aol.com</t>
-  </si>
-  <si>
-    <t>Laura Gramm &amp; Floyd Dörre</t>
-  </si>
-  <si>
-    <t>17687775511</t>
-  </si>
-  <si>
-    <t>laura.gramm@hotmail.de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jens Wagner </t>
-  </si>
-  <si>
-    <t>0174/3437829</t>
-  </si>
-  <si>
-    <t>jens.wagner@ibykus.de</t>
-  </si>
-  <si>
-    <t>Erfurter Herbstlese e.V. Kaufmännische Leitung Daniel Hoffmann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0361-644 583 19  </t>
-  </si>
-  <si>
-    <t>Doreen Hopf</t>
-  </si>
-  <si>
-    <t>doreen.vierling@gmx.de</t>
-  </si>
-  <si>
-    <t>Sally Schubert - Angebot vom 18.10.19</t>
-  </si>
-  <si>
-    <t>15151461862</t>
-  </si>
-  <si>
-    <t>sally.moon@gmx.net</t>
-  </si>
-  <si>
-    <t>Steffen Kleinpeter</t>
-  </si>
-  <si>
-    <t>0171 8935874</t>
-  </si>
-  <si>
-    <t>steffen.kleinpeter@web.de</t>
-  </si>
-  <si>
-    <t>Frau Vogelhubert</t>
-  </si>
-  <si>
-    <t>0152/57635544</t>
-  </si>
-  <si>
-    <t>1605519941</t>
-  </si>
-  <si>
-    <t>QUNDIS GmbH</t>
-  </si>
-  <si>
-    <t>Katrin Ehrsam – Tel. 0361 26 280 111 oder Claudia Köhler – Tel. 0361 26 280 432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christiana Fenselau </t>
-  </si>
-  <si>
-    <t>C.fenselau@web.de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabine Köhler </t>
-  </si>
-  <si>
-    <t>0176/85567971</t>
-  </si>
-  <si>
-    <t>sabine.koehler3@gmx.de</t>
-  </si>
-  <si>
-    <t>Wolfgang Waginger</t>
-  </si>
-  <si>
-    <t>0173 3276046</t>
-  </si>
-  <si>
-    <t>David Osburg</t>
-  </si>
-  <si>
-    <t>1735782543</t>
-  </si>
-  <si>
-    <t>daveost88@googlemail.com</t>
-  </si>
-  <si>
-    <t>Christian Senger</t>
-  </si>
-  <si>
-    <t>0170/3874371</t>
-  </si>
-  <si>
-    <t>senger.Schwansee@googlemail.com</t>
-  </si>
-  <si>
-    <t>Eichholtz Cornelia</t>
-  </si>
-  <si>
-    <t>0361/7461237</t>
-  </si>
-  <si>
-    <t>conny.eichholtz@gmail.com</t>
-  </si>
-  <si>
-    <t>Königsee Implantate GmbH</t>
-  </si>
-  <si>
-    <t>Evangelischer Kirchkreis</t>
-  </si>
-  <si>
-    <t>beate.schreiber@evangelischer-kirchenkreis-erfurt.de</t>
-  </si>
-  <si>
-    <t>ThüringenForst.Aör,Fanny Hurtig</t>
-  </si>
-  <si>
-    <t>0361/574012054</t>
-  </si>
-  <si>
-    <t>Fanny.Hurtig@forst.thueringen.de</t>
-  </si>
-  <si>
-    <t>Dieter Urbach</t>
-  </si>
-  <si>
-    <t>Robert Kästner</t>
-  </si>
-  <si>
-    <t>0160/7255284</t>
-  </si>
-  <si>
-    <t>robertkaestner@hotmail.com</t>
-  </si>
-  <si>
-    <t>Markus Hess</t>
-  </si>
-  <si>
-    <t>hess.markus01@googlemail.com</t>
-  </si>
-  <si>
-    <t>Tel 01752336000</t>
-  </si>
-  <si>
-    <t>Frau Elke Büttner</t>
-  </si>
-  <si>
-    <t>0361/6759168 oder 0172/3432063</t>
-  </si>
-  <si>
-    <t>Andreas Ritzau-Jost</t>
-  </si>
-  <si>
-    <t>15777897380</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Johannes Moritz</t>
-  </si>
-  <si>
-    <t>0151 67331211</t>
-  </si>
-  <si>
-    <t>Jahannes_Moritz@gmx.de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthias Melzer </t>
-  </si>
-  <si>
-    <t>(+49)177 7511767</t>
-  </si>
-  <si>
-    <t>melzer.matthias@googlemail.com</t>
-  </si>
-  <si>
-    <t>Dagmar Embshoff</t>
-  </si>
-  <si>
-    <t>0170/8788688</t>
-  </si>
-  <si>
-    <t>dagmar.embshoff@solidarische-oekonomie.de</t>
-  </si>
-  <si>
-    <t>Sebastian Brendel</t>
-  </si>
-  <si>
-    <t>1629833595</t>
-  </si>
-  <si>
-    <t>sebbrendel27@gmail.com</t>
-  </si>
-  <si>
-    <t>Maik Bäuerle</t>
-  </si>
-  <si>
-    <t>15233676779</t>
-  </si>
-  <si>
-    <t>jagermaik@web.de</t>
-  </si>
-  <si>
-    <t>Janine Bromnitz</t>
-  </si>
-  <si>
-    <t>janine.bromnitz@gmail.com</t>
-  </si>
-  <si>
-    <t>Markus Wolf</t>
-  </si>
-  <si>
-    <t>15251607086</t>
-  </si>
-  <si>
-    <t>flow1986@yahoo.de</t>
-  </si>
-  <si>
-    <t>Herr Janson aus Kleinmölsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kleinmölsen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frau ? </t>
-  </si>
-  <si>
-    <t>Kordes &amp; Kordes Film Süd GmbH DIE SCHULE DER MAGISCHEN TIERE 2, Hermann Lämmel</t>
-  </si>
-  <si>
-    <t>4,91777E+11</t>
-  </si>
-  <si>
-    <t>laemmelherm@gmail.com</t>
-  </si>
-  <si>
-    <t>Timo Haß und Pascal Schwarzer</t>
-  </si>
-  <si>
-    <t>timo-hass@gmx.net</t>
-  </si>
-  <si>
-    <t>Claudia Knapp</t>
-  </si>
-  <si>
-    <t>01520 3960623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Markus Möller </t>
-  </si>
-  <si>
-    <t>tel.: +49(0)36121956973 mobile:+49(0)1794325430</t>
-  </si>
-  <si>
-    <t>Frau ?</t>
-  </si>
-  <si>
-    <t>0173/4110594</t>
-  </si>
-  <si>
-    <t>Bernd Kleinpeter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bernd@kleinpeter.eu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcus Schmidt </t>
-  </si>
-  <si>
-    <t>1736625699</t>
-  </si>
-  <si>
-    <t>Marcussschmidt@web.de</t>
-  </si>
-  <si>
-    <t>Volker Seidel</t>
-  </si>
-  <si>
-    <t>0176/62039920</t>
-  </si>
-  <si>
-    <t>SeidelVolker@web.de</t>
-  </si>
-  <si>
-    <t>Heidrun Kämmerer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heidrun.Kaemmerer@gmx.de, </t>
-  </si>
-  <si>
-    <t>Fiona Kramer</t>
-  </si>
-  <si>
-    <t>1732709474</t>
-  </si>
-  <si>
-    <t>Fiona.kramer89@gmail.com</t>
-  </si>
-  <si>
-    <t>Dr. Joachim Dummer</t>
-  </si>
-  <si>
-    <t>0172/8117284</t>
-  </si>
-  <si>
-    <t>Joachim.Dummer@t-online.de</t>
-  </si>
-  <si>
-    <t>Prof. Dr. med. Maik Hoberg</t>
-  </si>
-  <si>
-    <t>hoberg@ms-arn.de</t>
-  </si>
-  <si>
-    <t>Diana Ritter</t>
-  </si>
-  <si>
-    <t>172360103</t>
-  </si>
-  <si>
-    <t>rittusch@googlemail.com</t>
-  </si>
-  <si>
-    <t>Heike Roth</t>
-  </si>
-  <si>
-    <t>17696802069</t>
-  </si>
-  <si>
-    <t>heikiroth@gmx.com</t>
-  </si>
-  <si>
-    <t>Paul Markurt</t>
-  </si>
-  <si>
-    <t>151 | 651 653 35</t>
-  </si>
-  <si>
-    <t>paul.markurt@gogglemail.com</t>
-  </si>
-  <si>
-    <t>Ronny Stricker</t>
-  </si>
-  <si>
-    <t>0173/9531509</t>
-  </si>
-  <si>
-    <t>Ronny.Stricker@posteo.de</t>
-  </si>
-  <si>
-    <t>Melanie Leder</t>
-  </si>
-  <si>
-    <t>7147338796</t>
-  </si>
-  <si>
-    <t>melanieleder@hotmail.de</t>
-  </si>
-  <si>
-    <t>Madlen Koch</t>
-  </si>
-  <si>
-    <t>1738739899</t>
-  </si>
-  <si>
-    <t>madlenkoch1986@gmail.com</t>
-  </si>
-  <si>
-    <t>Dominic Engler</t>
-  </si>
-  <si>
-    <t>1736876628</t>
-  </si>
-  <si>
-    <t>dominic.engler@web.de</t>
-  </si>
-  <si>
-    <t>Kay Weisheit</t>
-  </si>
-  <si>
-    <t>0176/34474433</t>
-  </si>
-  <si>
-    <t>info@kaweda.de</t>
-  </si>
-  <si>
-    <t>Axel Otto</t>
-  </si>
-  <si>
-    <t>Alex Jakisch</t>
-  </si>
-  <si>
-    <t>Laura Schönheit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0176 55384372 </t>
-  </si>
-  <si>
-    <t>Claudia Fiedler</t>
-  </si>
-  <si>
-    <t>1782114857</t>
-  </si>
-  <si>
-    <t>fiedler_cl@gmx.de - Kontakt über Qundis</t>
-  </si>
-  <si>
-    <t>Paul Appell</t>
-  </si>
-  <si>
-    <t>Christian Kemmer</t>
-  </si>
-  <si>
-    <t>Aramark GmbH i.H. Zeitfracht GmbH</t>
-  </si>
-  <si>
-    <t>0361/74379220 Hr. Andreas Schulz</t>
-  </si>
-  <si>
-    <t>Mirko Gerhardt</t>
-  </si>
-  <si>
-    <t>0177/8903947</t>
-  </si>
-  <si>
-    <t>mmgerhardt@gmx.de</t>
-  </si>
-  <si>
-    <t>Matthias Pfeifer</t>
-  </si>
-  <si>
-    <t>0172-3688860</t>
-  </si>
-  <si>
-    <t>mat.pfeifer@web.de</t>
-  </si>
-  <si>
-    <t>Toni Remus</t>
-  </si>
-  <si>
-    <t>mahouni119ge@freenet.de</t>
-  </si>
-  <si>
-    <t>Jens Donat</t>
-  </si>
-  <si>
-    <t>0179/2204961</t>
-  </si>
-  <si>
-    <t>jena1977@web.de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katrin Meixner  </t>
-  </si>
-  <si>
-    <t>17630122087</t>
-  </si>
-  <si>
-    <t>Martina Weiß</t>
-  </si>
-  <si>
-    <t>martinaweiss81@web.de</t>
-  </si>
-  <si>
-    <t>Manu</t>
-  </si>
-  <si>
-    <t>Jörg</t>
-  </si>
-  <si>
-    <t>Emil</t>
-  </si>
-  <si>
-    <t>Thüringer Staatskanzlei, Regierungsstraße 73, 99084 Erfurt</t>
-  </si>
-  <si>
-    <t>Ruhe &amp; Co, Herr Olliffe</t>
-  </si>
-  <si>
-    <t>036203/73110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landeszahnärztekammer Thüringen, Matthias Frölich, </t>
-  </si>
-  <si>
-    <t>0361 7432-136</t>
-  </si>
-  <si>
-    <t>Katja Leidel,</t>
-  </si>
-  <si>
-    <t>0163 - 78 377 68</t>
-  </si>
-  <si>
-    <t>Jordan GmbH, Antonia Englert Erfurt-Holz</t>
-  </si>
-  <si>
-    <t>361 42002 68</t>
-  </si>
-  <si>
-    <t>AEnglert@joka.de</t>
-  </si>
-  <si>
-    <t>Diemar Jung Zapfe GmbH, Frau Monique Cotte</t>
-  </si>
-  <si>
-    <t>0361 / 3019217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super e.V, Prof. Dr. Marion Eich-Born, </t>
-  </si>
-  <si>
-    <t>0172/8026193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonie Daube, </t>
-  </si>
-  <si>
-    <t>1743220165</t>
-  </si>
-  <si>
-    <t>leonie.daube01@gmail.com</t>
-  </si>
-  <si>
-    <t>Mirko Gießler</t>
-  </si>
-  <si>
-    <t>Herr Hannes</t>
-  </si>
-  <si>
-    <t>1623182771</t>
-  </si>
-  <si>
-    <t>hannes-a@t-online.de</t>
-  </si>
-  <si>
-    <t>Doreen Kümpel</t>
-  </si>
-  <si>
-    <t>0179/2154162</t>
-  </si>
-  <si>
-    <t>Doreentv@yahoo.com</t>
-  </si>
-  <si>
-    <t>Vanessa Stolze</t>
-  </si>
-  <si>
-    <t>1629138174</t>
-  </si>
-  <si>
-    <t>Vanessa.Thuene@web.de</t>
-  </si>
-  <si>
-    <t>Iris, Fressnapf</t>
   </si>
   <si>
     <t>Lieferung und Aufbau Zelt</t>
@@ -979,265 +343,25 @@
     <t>Mehrwertsteuer</t>
   </si>
   <si>
-    <t>Gisbodusstrasse</t>
-  </si>
-  <si>
-    <t>Erfurt Hochheim</t>
-  </si>
-  <si>
-    <t>am Angerberg  Kirche St Johannis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erfurt </t>
-  </si>
-  <si>
     <t>19a</t>
-  </si>
-  <si>
-    <t>Waltersleben</t>
-  </si>
-  <si>
-    <t>Weite Gasse</t>
-  </si>
-  <si>
-    <t>Erfurt</t>
-  </si>
-  <si>
-    <t>Pfeiffersgasse</t>
-  </si>
-  <si>
-    <t>Pfauenweg</t>
-  </si>
-  <si>
-    <t>Anger</t>
-  </si>
-  <si>
-    <t>Emdener Str.</t>
-  </si>
-  <si>
-    <t>Heinrich–Queva-Straße</t>
-  </si>
-  <si>
-    <t>Harztor</t>
-  </si>
-  <si>
-    <t>Mühlbergsweg</t>
-  </si>
-  <si>
-    <t>Geibelstr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allendorf OT Aschau </t>
-  </si>
-  <si>
-    <t>Am Sand</t>
-  </si>
-  <si>
-    <t>Am Flüßchen</t>
-  </si>
-  <si>
-    <t>Meienbergstr.</t>
-  </si>
-  <si>
-    <t>Schwansee</t>
-  </si>
-  <si>
-    <t>Feldstr.</t>
-  </si>
-  <si>
-    <t>Erfurt-Ringelberg</t>
-  </si>
-  <si>
-    <t>Robert-Michel-Straße</t>
-  </si>
-  <si>
-    <t>Nordstr.</t>
-  </si>
-  <si>
-    <t>Schweriner Str.</t>
-  </si>
-  <si>
-    <t>Jacob-Planer-Str.</t>
-  </si>
-  <si>
-    <t>Schmidtstedter Str.</t>
-  </si>
-  <si>
-    <t>Hallesche Str.</t>
-  </si>
-  <si>
-    <t>Isseroda</t>
-  </si>
-  <si>
-    <t>Schillerstraße</t>
-  </si>
-  <si>
-    <t>Halle</t>
-  </si>
-  <si>
-    <t>Hoflerstr.</t>
-  </si>
-  <si>
-    <t>Lindenweg</t>
-  </si>
-  <si>
-    <t>Sonnenleite</t>
-  </si>
-  <si>
-    <t>Dorfstr.</t>
-  </si>
-  <si>
-    <t>Witterda, Ortsteil Friedrichsdorf</t>
-  </si>
-  <si>
-    <t>Wilhelm-Pieck-Str.</t>
-  </si>
-  <si>
-    <t>Udestedt</t>
-  </si>
-  <si>
-    <t>Mönchenholzhausen</t>
-  </si>
-  <si>
-    <t>Kohlengasse</t>
   </si>
   <si>
     <t>München</t>
   </si>
   <si>
-    <t>Unsöldstraße</t>
-  </si>
-  <si>
-    <t>Erfurt-Linderbach</t>
-  </si>
-  <si>
-    <t>Über den Teichen</t>
-  </si>
-  <si>
-    <t>Feiningerstr.</t>
-  </si>
-  <si>
-    <t>Allendorf OT Aschau</t>
-  </si>
-  <si>
-    <t>Milchinselstr.</t>
-  </si>
-  <si>
-    <t>Amt Wachsenburg OT Haarhauen</t>
-  </si>
-  <si>
-    <t>Die Lange Straße</t>
-  </si>
-  <si>
-    <t>Ballstedt</t>
-  </si>
-  <si>
-    <t>Am Pfarrgarten</t>
-  </si>
-  <si>
-    <t>Fritz Büchner Straße</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niefern-Öschelbronn </t>
-  </si>
-  <si>
-    <t>Baumgartenstr.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 28/1</t>
-  </si>
-  <si>
-    <t>Windischholzhausen</t>
-  </si>
-  <si>
-    <t>Johannesflur</t>
-  </si>
-  <si>
-    <t>Bernauer Str.</t>
   </si>
   <si>
     <t>Reichartstr.</t>
   </si>
   <si>
-    <t>Frans-Hals-Str.</t>
+    <t>Kunde1</t>
   </si>
   <si>
-    <t>Alperstedt</t>
+    <t>dummy@googlemail.com</t>
   </si>
   <si>
-    <t>Erfurter Str.</t>
-  </si>
-  <si>
-    <t>Stotternheim</t>
-  </si>
-  <si>
-    <t>Walter-Rein-Str.</t>
-  </si>
-  <si>
-    <t>Arnstädter Str.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenaer Str. </t>
-  </si>
-  <si>
-    <t>Brühler Herrenberg</t>
-  </si>
-  <si>
-    <t>Erfurt-Schaderode</t>
-  </si>
-  <si>
-    <t>Salomonsborner Höhe</t>
-  </si>
-  <si>
-    <t>Karl-Zeiss-Str.</t>
-  </si>
-  <si>
-    <t>Rochlitzer Str.</t>
-  </si>
-  <si>
-    <t>Ferdinand-Jühlke-Str.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am Peterborn </t>
-  </si>
-  <si>
-    <t>Straußfurt</t>
-  </si>
-  <si>
-    <t>Schwerstedter Straße</t>
-  </si>
-  <si>
-    <t>Sanddornweg</t>
-  </si>
-  <si>
-    <t>Westerengler Hauptstraße</t>
-  </si>
-  <si>
-    <t>Greussen OT WESTERENGEL</t>
-  </si>
-  <si>
-    <t>Alfred-Hanf-Str.</t>
-  </si>
-  <si>
-    <t>Am Silberblick</t>
-  </si>
-  <si>
-    <t>Fichtenweg</t>
-  </si>
-  <si>
-    <t>Weimarische Str.</t>
-  </si>
-  <si>
-    <t>Barbarossahof</t>
-  </si>
-  <si>
-    <t>Richard-Breslau-Str.</t>
-  </si>
-  <si>
-    <t>Waldemarstr.</t>
-  </si>
-  <si>
-    <t>Stephanie Glaeser</t>
+    <t>Holzweg</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +664,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1708,9 +832,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2034,8 +1155,8 @@
   <dimension ref="A1:AFL221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="78" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -2046,9 +1167,9 @@
     <col min="5" max="5" width="19.33203125" style="37" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="20.33203125" style="11" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="19.33203125" style="37" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="19.33203125" style="60" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.33203125" style="61" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.33203125" style="60" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="19.33203125" style="59" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.33203125" style="60" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.33203125" style="59" customWidth="1" collapsed="1"/>
     <col min="12" max="13" width="12.6640625" style="37" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="14.6640625" style="37" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="10.5" style="10" customWidth="1" collapsed="1"/>
@@ -2121,16 +1242,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J1" s="54" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K1" s="53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>7</v>
@@ -2316,7 +1437,7 @@
         <v>67</v>
       </c>
       <c r="BU1" s="45" t="s">
-        <v>313</v>
+        <v>101</v>
       </c>
       <c r="BV1" s="33" t="s">
         <v>68</v>
@@ -3190,25 +2311,25 @@
         <v>44329</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="F7" s="40">
+        <v>123456</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>314</v>
+        <v>108</v>
       </c>
       <c r="I7" s="55">
         <v>28</v>
       </c>
       <c r="J7" s="56">
-        <v>99091</v>
+        <v>80333</v>
       </c>
       <c r="K7" s="55" t="s">
-        <v>317</v>
+        <v>103</v>
       </c>
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
@@ -3278,7 +2399,7 @@
       <c r="BQ7" s="40"/>
       <c r="BR7" s="40"/>
       <c r="BS7" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT7" s="47">
         <v>401.5</v>
@@ -3309,21 +2430,21 @@
       <c r="E8" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="40">
+        <v>123456</v>
+      </c>
+      <c r="G8" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="H8" s="55" t="s">
         <v>108</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>316</v>
       </c>
       <c r="I8" s="55"/>
       <c r="J8" s="56">
-        <v>99094</v>
+        <v>80333</v>
       </c>
       <c r="K8" s="55" t="s">
-        <v>315</v>
+        <v>103</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
@@ -3391,7 +2512,7 @@
       <c r="BQ8" s="40"/>
       <c r="BR8" s="40"/>
       <c r="BS8" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT8" s="47">
         <v>336.5</v>
@@ -3420,18 +2541,24 @@
         <v>44337</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="F9" s="40">
+        <v>123456</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H9" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I9" s="55"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="55"/>
+      <c r="J9" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
       <c r="N9" s="40"/>
@@ -3494,7 +2621,7 @@
       <c r="BQ9" s="40"/>
       <c r="BR9" s="40"/>
       <c r="BS9" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT9" s="47">
         <v>85</v>
@@ -3523,23 +2650,25 @@
         <v>44339</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="F10" s="40">
+        <v>123456</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>320</v>
+        <v>108</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>318</v>
-      </c>
-      <c r="J10" s="56"/>
+        <v>102</v>
+      </c>
+      <c r="J10" s="56">
+        <v>80333</v>
+      </c>
       <c r="K10" s="55" t="s">
-        <v>319</v>
+        <v>103</v>
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
@@ -3607,7 +2736,7 @@
       <c r="BQ10" s="40"/>
       <c r="BR10" s="40"/>
       <c r="BS10" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT10" s="47">
         <v>222.5</v>
@@ -3636,18 +2765,24 @@
         <v>44360</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>116</v>
+        <v>106</v>
+      </c>
+      <c r="F11" s="40">
+        <v>123456</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I11" s="55"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="55"/>
+      <c r="J11" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
       <c r="N11" s="40"/>
@@ -3710,7 +2845,7 @@
       <c r="BQ11" s="40"/>
       <c r="BR11" s="40"/>
       <c r="BS11" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT11" s="47">
         <v>100</v>
@@ -3739,25 +2874,25 @@
         <v>44360</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>119</v>
+        <v>106</v>
+      </c>
+      <c r="F12" s="40">
+        <v>123456</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>322</v>
+        <v>108</v>
       </c>
       <c r="I12" s="55">
         <v>13</v>
       </c>
       <c r="J12" s="56">
-        <v>99084</v>
+        <v>80333</v>
       </c>
       <c r="K12" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L12" s="40"/>
       <c r="M12" s="40">
@@ -3831,7 +2966,7 @@
       <c r="BQ12" s="40"/>
       <c r="BR12" s="40"/>
       <c r="BS12" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT12" s="48">
         <v>482</v>
@@ -3860,25 +2995,25 @@
         <v>44367</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>122</v>
+        <v>106</v>
+      </c>
+      <c r="F13" s="40">
+        <v>123456</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>323</v>
+        <v>108</v>
       </c>
       <c r="I13" s="55">
         <v>25</v>
       </c>
       <c r="J13" s="56">
-        <v>99087</v>
+        <v>80333</v>
       </c>
       <c r="K13" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
@@ -3942,7 +3077,7 @@
       <c r="BQ13" s="40"/>
       <c r="BR13" s="40"/>
       <c r="BS13" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT13" s="47">
         <v>51</v>
@@ -3971,18 +3106,24 @@
         <v>44367</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>125</v>
+        <v>106</v>
+      </c>
+      <c r="F14" s="40">
+        <v>123456</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I14" s="55"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="55"/>
+      <c r="J14" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
       <c r="N14" s="40"/>
@@ -4045,7 +3186,7 @@
       <c r="BQ14" s="40"/>
       <c r="BR14" s="40"/>
       <c r="BS14" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT14" s="47">
         <v>189</v>
@@ -4074,18 +3215,24 @@
         <v>44367</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>128</v>
+        <v>106</v>
+      </c>
+      <c r="F15" s="40">
+        <v>123456</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I15" s="55"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="55"/>
+      <c r="J15" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K15" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
       <c r="N15" s="40"/>
@@ -4173,25 +3320,25 @@
         <v>44372</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>131</v>
+        <v>106</v>
+      </c>
+      <c r="F16" s="40">
+        <v>123456</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H16" s="55" t="s">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="I16" s="55">
         <v>37</v>
       </c>
       <c r="J16" s="56">
-        <v>99084</v>
+        <v>80333</v>
       </c>
       <c r="K16" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L16" s="40"/>
       <c r="M16" s="40"/>
@@ -4257,7 +3404,7 @@
       <c r="BQ16" s="40"/>
       <c r="BR16" s="40"/>
       <c r="BS16" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT16" s="47">
         <v>225</v>
@@ -4286,23 +3433,23 @@
         <v>44380</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F17" s="40">
+        <v>123456</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>325</v>
+        <v>108</v>
       </c>
       <c r="I17" s="55"/>
       <c r="J17" s="56">
-        <v>99085</v>
+        <v>80333</v>
       </c>
       <c r="K17" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L17" s="40"/>
       <c r="M17" s="40"/>
@@ -4391,18 +3538,24 @@
         <v>44380</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>135</v>
+        <v>106</v>
+      </c>
+      <c r="F18" s="40">
+        <v>123456</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="55"/>
+      <c r="J18" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K18" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
       <c r="N18" s="40"/>
@@ -4479,7 +3632,7 @@
       <c r="BQ18" s="40"/>
       <c r="BR18" s="40"/>
       <c r="BS18" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT18" s="47">
         <v>745.5</v>
@@ -4508,20 +3661,24 @@
         <v>44378</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>144</v>
+        <v>106</v>
+      </c>
+      <c r="F19" s="40">
+        <v>123456</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>326</v>
+        <v>108</v>
       </c>
       <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="55"/>
+      <c r="J19" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K19" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
@@ -4590,7 +3747,7 @@
       <c r="BQ19" s="40"/>
       <c r="BR19" s="40"/>
       <c r="BS19" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT19" s="47">
         <v>196</v>
@@ -4619,25 +3776,25 @@
         <v>44381</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>138</v>
+        <v>106</v>
+      </c>
+      <c r="F20" s="40">
+        <v>123456</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="H20" s="55" t="s">
-        <v>327</v>
+        <v>108</v>
       </c>
       <c r="I20" s="55">
         <v>10</v>
       </c>
       <c r="J20" s="56">
-        <v>99768</v>
+        <v>80333</v>
       </c>
       <c r="K20" s="55" t="s">
-        <v>328</v>
+        <v>103</v>
       </c>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
@@ -4726,18 +3883,24 @@
         <v>44381</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>141</v>
+        <v>106</v>
+      </c>
+      <c r="F21" s="40">
+        <v>123456</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H21" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I21" s="55"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="55"/>
+      <c r="J21" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K21" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
@@ -4802,7 +3965,7 @@
       <c r="BQ21" s="40"/>
       <c r="BR21" s="40"/>
       <c r="BS21" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT21" s="47">
         <v>299.5</v>
@@ -4831,25 +3994,25 @@
         <v>44381</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>400</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>142</v>
+        <v>106</v>
+      </c>
+      <c r="F22" s="40">
+        <v>123456</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>329</v>
+        <v>108</v>
       </c>
       <c r="I22" s="55">
         <v>42</v>
       </c>
       <c r="J22" s="56">
-        <v>99096</v>
+        <v>80333</v>
       </c>
       <c r="K22" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
@@ -4938,18 +4101,24 @@
         <v>44381</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F23" s="40">
+        <v>123456</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H23" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I23" s="55"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="55"/>
+      <c r="J23" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K23" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
       <c r="N23" s="40">
@@ -5012,7 +4181,7 @@
       <c r="BQ23" s="40"/>
       <c r="BR23" s="40"/>
       <c r="BS23" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT23" s="47">
         <v>60</v>
@@ -5041,25 +4210,25 @@
         <v>44386</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F24" s="40">
+        <v>123456</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="I24" s="55">
         <v>4</v>
       </c>
       <c r="J24" s="56">
-        <v>7426</v>
+        <v>80333</v>
       </c>
       <c r="K24" s="55" t="s">
-        <v>330</v>
+        <v>103</v>
       </c>
       <c r="L24" s="40"/>
       <c r="M24" s="40">
@@ -5123,7 +4292,7 @@
       <c r="BQ24" s="40"/>
       <c r="BR24" s="40"/>
       <c r="BS24" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT24" s="47">
         <v>188</v>
@@ -5152,25 +4321,25 @@
         <v>44388</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>148</v>
+        <v>106</v>
+      </c>
+      <c r="F25" s="40">
+        <v>123456</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="H25" s="55" t="s">
-        <v>332</v>
+        <v>108</v>
       </c>
       <c r="I25" s="55">
         <v>7</v>
       </c>
       <c r="J25" s="56">
-        <v>99091</v>
+        <v>80333</v>
       </c>
       <c r="K25" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L25" s="40"/>
       <c r="M25" s="40"/>
@@ -5240,7 +4409,7 @@
       <c r="BQ25" s="40"/>
       <c r="BR25" s="40"/>
       <c r="BS25" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT25" s="47">
         <v>241</v>
@@ -5269,18 +4438,24 @@
         <v>44388</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="40" t="s">
-        <v>151</v>
+        <v>106</v>
+      </c>
+      <c r="F26" s="40">
+        <v>123456</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H26" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="55"/>
+      <c r="J26" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K26" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L26" s="40"/>
       <c r="M26" s="40"/>
       <c r="N26" s="40"/>
@@ -5345,7 +4520,7 @@
       <c r="BQ26" s="40"/>
       <c r="BR26" s="40"/>
       <c r="BS26" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT26" s="47">
         <v>101</v>
@@ -5374,25 +4549,25 @@
         <v>44388</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>153</v>
+        <v>106</v>
+      </c>
+      <c r="F27" s="40">
+        <v>123456</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="H27" s="55" t="s">
-        <v>333</v>
+        <v>108</v>
       </c>
       <c r="I27" s="55">
         <v>5</v>
       </c>
       <c r="J27" s="56">
-        <v>99084</v>
+        <v>80333</v>
       </c>
       <c r="K27" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
@@ -5462,7 +4637,7 @@
       <c r="BQ27" s="40"/>
       <c r="BR27" s="40"/>
       <c r="BS27" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT27" s="47">
         <v>130</v>
@@ -5491,25 +4666,25 @@
         <v>44388</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>156</v>
+        <v>106</v>
+      </c>
+      <c r="F28" s="40">
+        <v>123456</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="H28" s="55" t="s">
-        <v>335</v>
+        <v>108</v>
       </c>
       <c r="I28" s="55">
         <v>7</v>
       </c>
       <c r="J28" s="56">
-        <v>99195</v>
+        <v>80333</v>
       </c>
       <c r="K28" s="55" t="s">
-        <v>334</v>
+        <v>103</v>
       </c>
       <c r="L28" s="40"/>
       <c r="M28" s="40"/>
@@ -5573,7 +4748,7 @@
       <c r="BQ28" s="40"/>
       <c r="BR28" s="40"/>
       <c r="BS28" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT28" s="47">
         <v>120</v>
@@ -5602,25 +4777,25 @@
         <v>44388</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>159</v>
+        <v>106</v>
+      </c>
+      <c r="F29" s="40">
+        <v>123456</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="H29" s="55" t="s">
-        <v>340</v>
+        <v>108</v>
       </c>
       <c r="I29" s="55">
         <v>10</v>
       </c>
       <c r="J29" s="56">
-        <v>99089</v>
+        <v>80333</v>
       </c>
       <c r="K29" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L29" s="40"/>
       <c r="M29" s="40"/>
@@ -5684,7 +4859,7 @@
       <c r="BQ29" s="40"/>
       <c r="BR29" s="40"/>
       <c r="BS29" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT29" s="47">
         <v>40</v>
@@ -5713,25 +4888,25 @@
         <v>44386</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F30" s="40">
+        <v>123456</v>
       </c>
       <c r="G30" s="39" t="s">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c r="H30" s="55" t="s">
-        <v>341</v>
+        <v>108</v>
       </c>
       <c r="I30" s="55">
         <v>41</v>
       </c>
       <c r="J30" s="56">
-        <v>99084</v>
+        <v>80333</v>
       </c>
       <c r="K30" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L30" s="40"/>
       <c r="M30" s="40"/>
@@ -5797,7 +4972,7 @@
       <c r="BQ30" s="40"/>
       <c r="BR30" s="40"/>
       <c r="BS30" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT30" s="47">
         <v>75</v>
@@ -5826,25 +5001,25 @@
         <v>44392</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>165</v>
+        <v>106</v>
+      </c>
+      <c r="F31" s="40">
+        <v>123456</v>
       </c>
       <c r="G31" s="39" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="H31" s="55" t="s">
-        <v>342</v>
+        <v>108</v>
       </c>
       <c r="I31" s="55">
         <v>20</v>
       </c>
       <c r="J31" s="56">
-        <v>99085</v>
+        <v>80333</v>
       </c>
       <c r="K31" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L31" s="40"/>
       <c r="M31" s="40"/>
@@ -5914,7 +5089,7 @@
       <c r="BQ31" s="40"/>
       <c r="BR31" s="40"/>
       <c r="BS31" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT31" s="47">
         <v>816</v>
@@ -5943,19 +5118,23 @@
         <v>44394</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="F32" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F32" s="40">
+        <v>123456</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H32" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I32" s="55"/>
-      <c r="J32" s="56"/>
+      <c r="J32" s="56">
+        <v>80333</v>
+      </c>
       <c r="K32" s="55" t="s">
-        <v>343</v>
+        <v>103</v>
       </c>
       <c r="L32" s="40"/>
       <c r="M32" s="40"/>
@@ -6027,7 +5206,7 @@
       <c r="BQ32" s="40"/>
       <c r="BR32" s="40"/>
       <c r="BS32" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT32" s="51">
         <v>0</v>
@@ -6056,25 +5235,25 @@
         <v>44395</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>183</v>
+        <v>106</v>
+      </c>
+      <c r="F33" s="40">
+        <v>123456</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="H33" s="55" t="s">
-        <v>344</v>
+        <v>108</v>
       </c>
       <c r="I33" s="55">
         <v>49</v>
       </c>
       <c r="J33" s="56">
-        <v>6114</v>
+        <v>80333</v>
       </c>
       <c r="K33" s="55" t="s">
-        <v>345</v>
+        <v>103</v>
       </c>
       <c r="L33" s="40"/>
       <c r="M33" s="40"/>
@@ -6163,25 +5342,25 @@
         <v>44396</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>169</v>
+        <v>106</v>
+      </c>
+      <c r="F34" s="40">
+        <v>123456</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="H34" s="55" t="s">
-        <v>346</v>
+        <v>108</v>
       </c>
       <c r="I34" s="55">
         <v>14</v>
       </c>
       <c r="J34" s="56">
-        <v>99094</v>
+        <v>80333</v>
       </c>
       <c r="K34" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L34" s="40"/>
       <c r="M34" s="40"/>
@@ -6253,7 +5432,7 @@
       <c r="BQ34" s="40"/>
       <c r="BR34" s="40"/>
       <c r="BS34" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT34" s="47">
         <v>295</v>
@@ -6282,25 +5461,25 @@
         <v>44395</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>172</v>
+        <v>106</v>
+      </c>
+      <c r="F35" s="40">
+        <v>123456</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="H35" s="55" t="s">
-        <v>347</v>
+        <v>108</v>
       </c>
       <c r="I35" s="55">
         <v>11</v>
       </c>
       <c r="J35" s="56">
-        <v>99084</v>
+        <v>80333</v>
       </c>
       <c r="K35" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L35" s="40"/>
       <c r="M35" s="40"/>
@@ -6389,25 +5568,25 @@
         <v>44395</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="F36" s="40" t="s">
-        <v>175</v>
+        <v>106</v>
+      </c>
+      <c r="F36" s="40">
+        <v>123456</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H36" s="55" t="s">
-        <v>348</v>
+        <v>108</v>
       </c>
       <c r="I36" s="55">
         <v>25</v>
       </c>
       <c r="J36" s="56">
-        <v>99092</v>
+        <v>80333</v>
       </c>
       <c r="K36" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L36" s="40"/>
       <c r="M36" s="40"/>
@@ -6477,7 +5656,7 @@
       <c r="BQ36" s="40"/>
       <c r="BR36" s="40"/>
       <c r="BS36" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT36" s="47">
         <v>275</v>
@@ -6506,25 +5685,25 @@
         <v>44395</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>177</v>
+        <v>106</v>
+      </c>
+      <c r="F37" s="40">
+        <v>123456</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H37" s="55" t="s">
-        <v>349</v>
+        <v>108</v>
       </c>
       <c r="I37" s="55">
         <v>25</v>
       </c>
       <c r="J37" s="56">
-        <v>99189</v>
+        <v>80333</v>
       </c>
       <c r="K37" s="55" t="s">
-        <v>350</v>
+        <v>103</v>
       </c>
       <c r="L37" s="40"/>
       <c r="M37" s="40">
@@ -6615,18 +5794,24 @@
         <v>44395</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="F38" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F38" s="40">
+        <v>123456</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H38" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H38" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I38" s="55"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="55"/>
+      <c r="J38" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K38" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L38" s="40"/>
       <c r="M38" s="40"/>
       <c r="N38" s="40"/>
@@ -6689,7 +5874,7 @@
       <c r="BQ38" s="40"/>
       <c r="BR38" s="40"/>
       <c r="BS38" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT38" s="47">
         <v>77</v>
@@ -6718,18 +5903,24 @@
         <v>44395</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="F39" s="40" t="s">
-        <v>180</v>
+        <v>106</v>
+      </c>
+      <c r="F39" s="40">
+        <v>123456</v>
       </c>
       <c r="G39" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="H39" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H39" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I39" s="55"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="55"/>
+      <c r="J39" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K39" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L39" s="40"/>
       <c r="M39" s="40"/>
       <c r="N39" s="40"/>
@@ -6792,7 +5983,7 @@
       <c r="BQ39" s="40"/>
       <c r="BR39" s="40"/>
       <c r="BS39" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT39" s="47">
         <v>235.5</v>
@@ -6821,18 +6012,24 @@
         <v>44399</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="F40" s="40" t="s">
-        <v>186</v>
+        <v>106</v>
+      </c>
+      <c r="F40" s="40">
+        <v>123456</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="H40" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H40" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I40" s="55"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="55"/>
+      <c r="J40" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K40" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
       <c r="N40" s="40"/>
@@ -6899,7 +6096,7 @@
       <c r="BQ40" s="40"/>
       <c r="BR40" s="40"/>
       <c r="BS40" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT40" s="47">
         <v>687.5</v>
@@ -6928,18 +6125,24 @@
         <v>44401</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="40" t="s">
-        <v>93</v>
+        <v>106</v>
+      </c>
+      <c r="F41" s="40">
+        <v>123456</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="H41" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H41" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I41" s="55"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="55"/>
+      <c r="J41" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K41" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L41" s="40"/>
       <c r="M41" s="40"/>
       <c r="N41" s="40"/>
@@ -7008,7 +6211,7 @@
       <c r="BQ41" s="40"/>
       <c r="BR41" s="40"/>
       <c r="BS41" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT41" s="47">
         <v>1187.5</v>
@@ -7037,25 +6240,25 @@
         <v>44402</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="F42" s="40" t="s">
-        <v>189</v>
+        <v>106</v>
+      </c>
+      <c r="F42" s="40">
+        <v>123456</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="H42" s="55" t="s">
-        <v>351</v>
+        <v>108</v>
       </c>
       <c r="I42" s="55">
         <v>46</v>
       </c>
       <c r="J42" s="56">
-        <v>99198</v>
+        <v>80333</v>
       </c>
       <c r="K42" s="55" t="s">
-        <v>352</v>
+        <v>103</v>
       </c>
       <c r="L42" s="40"/>
       <c r="M42" s="40"/>
@@ -7119,7 +6322,7 @@
       <c r="BQ42" s="40"/>
       <c r="BR42" s="40"/>
       <c r="BS42" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT42" s="47">
         <v>85</v>
@@ -7148,18 +6351,24 @@
         <v>44401</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="F43" s="40" t="s">
-        <v>192</v>
+        <v>106</v>
+      </c>
+      <c r="F43" s="40">
+        <v>123456</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="H43" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H43" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I43" s="55"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="55"/>
+      <c r="J43" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K43" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L43" s="40"/>
       <c r="M43" s="40"/>
       <c r="N43" s="40"/>
@@ -7232,7 +6441,7 @@
       <c r="BQ43" s="40"/>
       <c r="BR43" s="40"/>
       <c r="BS43" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT43" s="47">
         <v>243</v>
@@ -7261,23 +6470,25 @@
         <v>44402</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="F44" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F44" s="40">
+        <v>123456</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="H44" s="55" t="s">
-        <v>354</v>
+        <v>108</v>
       </c>
       <c r="I44" s="55">
         <v>1</v>
       </c>
-      <c r="J44" s="56"/>
+      <c r="J44" s="56">
+        <v>80333</v>
+      </c>
       <c r="K44" s="55" t="s">
-        <v>353</v>
+        <v>103</v>
       </c>
       <c r="L44" s="40"/>
       <c r="M44" s="40"/>
@@ -7341,7 +6552,7 @@
       <c r="BQ44" s="40"/>
       <c r="BR44" s="40"/>
       <c r="BS44" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT44" s="49">
         <v>342.5</v>
@@ -7370,18 +6581,24 @@
         <v>44402</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="F45" s="40" t="s">
-        <v>197</v>
+        <v>106</v>
+      </c>
+      <c r="F45" s="40">
+        <v>123456</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="H45" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H45" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I45" s="55"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="55"/>
+      <c r="J45" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K45" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L45" s="40"/>
       <c r="M45" s="40"/>
       <c r="N45" s="40"/>
@@ -7446,7 +6663,7 @@
       <c r="BQ45" s="40"/>
       <c r="BR45" s="40"/>
       <c r="BS45" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT45" s="49">
         <v>24.5</v>
@@ -7475,19 +6692,23 @@
         <v>44402</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="F46" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F46" s="40">
+        <v>123456</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H46" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H46" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I46" s="55"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="57" t="s">
-        <v>200</v>
+      <c r="J46" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K46" s="55" t="s">
+        <v>103</v>
       </c>
       <c r="L46" s="40"/>
       <c r="M46" s="40"/>
@@ -7553,7 +6774,7 @@
       <c r="BQ46" s="40"/>
       <c r="BR46" s="40"/>
       <c r="BS46" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT46" s="49">
         <v>80</v>
@@ -7582,18 +6803,24 @@
         <v>44402</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="F47" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F47" s="40">
+        <v>123456</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H47" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H47" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I47" s="55"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="55"/>
+      <c r="J47" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K47" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L47" s="40"/>
       <c r="M47" s="40"/>
       <c r="N47" s="40"/>
@@ -7656,7 +6883,7 @@
       <c r="BQ47" s="40"/>
       <c r="BR47" s="40"/>
       <c r="BS47" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT47" s="49">
         <v>21</v>
@@ -7685,25 +6912,23 @@
         <v>44407</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="F48" s="40" t="s">
-        <v>203</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F48" s="40"/>
       <c r="G48" s="39" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="H48" s="55" t="s">
-        <v>356</v>
+        <v>108</v>
       </c>
       <c r="I48" s="55">
         <v>2</v>
       </c>
       <c r="J48" s="56">
-        <v>80538</v>
+        <v>80333</v>
       </c>
       <c r="K48" s="55" t="s">
-        <v>355</v>
+        <v>103</v>
       </c>
       <c r="L48" s="40"/>
       <c r="M48" s="40"/>
@@ -7767,7 +6992,7 @@
       <c r="BQ48" s="40"/>
       <c r="BR48" s="40"/>
       <c r="BS48" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT48" s="49">
         <v>465</v>
@@ -7796,25 +7021,25 @@
         <v>44409</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="F49" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F49" s="40">
+        <v>123456</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="H49" s="55" t="s">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="I49" s="55">
         <v>9</v>
       </c>
       <c r="J49" s="56">
-        <v>99098</v>
+        <v>80333</v>
       </c>
       <c r="K49" s="55" t="s">
-        <v>357</v>
+        <v>103</v>
       </c>
       <c r="L49" s="40"/>
       <c r="M49" s="40"/>
@@ -7903,25 +7128,25 @@
         <v>44409</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>208</v>
+        <v>106</v>
+      </c>
+      <c r="F50" s="40">
+        <v>123456</v>
       </c>
       <c r="G50" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H50" s="57" t="s">
-        <v>359</v>
+        <v>107</v>
+      </c>
+      <c r="H50" s="55" t="s">
+        <v>108</v>
       </c>
       <c r="I50" s="55">
         <v>111</v>
       </c>
       <c r="J50" s="56">
-        <v>99085</v>
+        <v>80333</v>
       </c>
       <c r="K50" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L50" s="40"/>
       <c r="M50" s="40"/>
@@ -7989,7 +7214,7 @@
       <c r="BQ50" s="40"/>
       <c r="BR50" s="40"/>
       <c r="BS50" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT50" s="47">
         <v>158</v>
@@ -8018,25 +7243,25 @@
         <v>44407</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="F51" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F51" s="40">
+        <v>123456</v>
       </c>
       <c r="G51" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H51" s="55" t="s">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="I51" s="55">
         <v>4</v>
       </c>
       <c r="J51" s="56">
-        <v>7426</v>
+        <v>80333</v>
       </c>
       <c r="K51" s="55" t="s">
-        <v>360</v>
+        <v>103</v>
       </c>
       <c r="L51" s="40"/>
       <c r="M51" s="40"/>
@@ -8108,7 +7333,7 @@
       <c r="BQ51" s="40"/>
       <c r="BR51" s="40"/>
       <c r="BS51" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT51" s="47">
         <v>598</v>
@@ -8137,25 +7362,25 @@
         <v>44417</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="F52" s="40" t="s">
-        <v>210</v>
+        <v>106</v>
+      </c>
+      <c r="F52" s="40">
+        <v>123456</v>
       </c>
       <c r="G52" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H52" s="55" t="s">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="I52" s="55">
         <v>21</v>
       </c>
       <c r="J52" s="56">
-        <v>99094</v>
+        <v>80333</v>
       </c>
       <c r="K52" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L52" s="40"/>
       <c r="M52" s="40"/>
@@ -8219,7 +7444,7 @@
       <c r="BQ52" s="40"/>
       <c r="BR52" s="40"/>
       <c r="BS52" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT52" s="47">
         <v>85</v>
@@ -8248,18 +7473,24 @@
         <v>44417</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="F53" s="40" t="s">
-        <v>212</v>
+        <v>106</v>
+      </c>
+      <c r="F53" s="40">
+        <v>123456</v>
       </c>
       <c r="G53" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H53" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H53" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I53" s="55"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="55"/>
+      <c r="J53" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K53" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L53" s="40"/>
       <c r="M53" s="40"/>
       <c r="N53" s="40"/>
@@ -8322,7 +7553,7 @@
       <c r="BQ53" s="40"/>
       <c r="BR53" s="40"/>
       <c r="BS53" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT53" s="47">
         <v>150</v>
@@ -8351,18 +7582,24 @@
         <v>44430</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="F54" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F54" s="40">
+        <v>123456</v>
       </c>
       <c r="G54" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="H54" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H54" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I54" s="55"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="55"/>
+      <c r="J54" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K54" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L54" s="40"/>
       <c r="M54" s="40"/>
       <c r="N54" s="40"/>
@@ -8427,7 +7664,7 @@
       <c r="BQ54" s="40"/>
       <c r="BR54" s="40"/>
       <c r="BS54" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT54" s="47">
         <v>161</v>
@@ -8456,25 +7693,25 @@
         <v>44430</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="F55" s="40" t="s">
-        <v>216</v>
+        <v>106</v>
+      </c>
+      <c r="F55" s="40">
+        <v>123456</v>
       </c>
       <c r="G55" s="39" t="s">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="H55" s="55" t="s">
-        <v>363</v>
+        <v>108</v>
       </c>
       <c r="I55" s="55">
         <v>19</v>
       </c>
       <c r="J55" s="56">
-        <v>99334</v>
+        <v>80333</v>
       </c>
       <c r="K55" s="55" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="L55" s="40"/>
       <c r="M55" s="40"/>
@@ -8544,7 +7781,7 @@
       <c r="BQ55" s="40"/>
       <c r="BR55" s="40"/>
       <c r="BS55" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT55" s="47">
         <v>888</v>
@@ -8573,25 +7810,25 @@
         <v>44430</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="F56" s="40" t="s">
-        <v>219</v>
+        <v>106</v>
+      </c>
+      <c r="F56" s="40">
+        <v>123456</v>
       </c>
       <c r="G56" s="39" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="H56" s="55" t="s">
-        <v>365</v>
+        <v>108</v>
       </c>
       <c r="I56" s="55">
         <v>12</v>
       </c>
       <c r="J56" s="56">
-        <v>99439</v>
+        <v>80333</v>
       </c>
       <c r="K56" s="55" t="s">
-        <v>364</v>
+        <v>103</v>
       </c>
       <c r="L56" s="40"/>
       <c r="M56" s="40"/>
@@ -8667,7 +7904,7 @@
       <c r="BQ56" s="40"/>
       <c r="BR56" s="40"/>
       <c r="BS56" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT56" s="47">
         <v>781.5</v>
@@ -8696,18 +7933,24 @@
         <v>44430</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F57" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F57" s="40">
+        <v>123456</v>
       </c>
       <c r="G57" s="39" t="s">
-        <v>222</v>
-      </c>
-      <c r="H57" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H57" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I57" s="55"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="55"/>
+      <c r="J57" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K57" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L57" s="40"/>
       <c r="M57" s="40"/>
       <c r="N57" s="40"/>
@@ -8795,22 +8038,26 @@
         <v>44430</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="F58" s="40" t="s">
-        <v>224</v>
+        <v>106</v>
+      </c>
+      <c r="F58" s="40">
+        <v>123456</v>
       </c>
       <c r="G58" s="39" t="s">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="H58" s="55" t="s">
-        <v>366</v>
+        <v>108</v>
       </c>
       <c r="I58" s="55">
         <v>20</v>
       </c>
-      <c r="J58" s="56"/>
-      <c r="K58" s="55"/>
+      <c r="J58" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K58" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L58" s="40"/>
       <c r="M58" s="40"/>
       <c r="N58" s="40"/>
@@ -8873,7 +8120,7 @@
       <c r="BQ58" s="40"/>
       <c r="BR58" s="40"/>
       <c r="BS58" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT58" s="47">
         <v>75</v>
@@ -8902,25 +8149,25 @@
         <v>44437</v>
       </c>
       <c r="E59" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F59" s="40" t="s">
-        <v>227</v>
+        <v>106</v>
+      </c>
+      <c r="F59" s="40">
+        <v>123456</v>
       </c>
       <c r="G59" s="39" t="s">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="H59" s="55" t="s">
-        <v>368</v>
+        <v>108</v>
       </c>
       <c r="I59" s="55" t="s">
-        <v>369</v>
+        <v>104</v>
       </c>
       <c r="J59" s="56">
-        <v>75223</v>
+        <v>80333</v>
       </c>
       <c r="K59" s="55" t="s">
-        <v>367</v>
+        <v>103</v>
       </c>
       <c r="L59" s="40"/>
       <c r="M59" s="40"/>
@@ -8990,7 +8237,7 @@
       <c r="BQ59" s="40"/>
       <c r="BR59" s="40"/>
       <c r="BS59" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT59" s="47">
         <v>415</v>
@@ -9019,25 +8266,25 @@
         <v>44437</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="F60" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F60" s="40">
+        <v>123456</v>
       </c>
       <c r="G60" s="39" t="s">
-        <v>230</v>
+        <v>107</v>
       </c>
       <c r="H60" s="55" t="s">
-        <v>371</v>
+        <v>108</v>
       </c>
       <c r="I60" s="55">
         <v>17</v>
       </c>
       <c r="J60" s="56">
-        <v>99099</v>
+        <v>80333</v>
       </c>
       <c r="K60" s="55" t="s">
-        <v>370</v>
+        <v>103</v>
       </c>
       <c r="L60" s="40"/>
       <c r="M60" s="40"/>
@@ -9107,7 +8354,7 @@
       <c r="BQ60" s="40"/>
       <c r="BR60" s="40"/>
       <c r="BS60" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT60" s="47">
         <v>402</v>
@@ -9136,25 +8383,25 @@
         <v>44437</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="F61" s="40" t="s">
-        <v>232</v>
+        <v>106</v>
+      </c>
+      <c r="F61" s="40">
+        <v>123456</v>
       </c>
       <c r="G61" s="39" t="s">
-        <v>233</v>
+        <v>107</v>
       </c>
       <c r="H61" s="55" t="s">
-        <v>372</v>
+        <v>108</v>
       </c>
       <c r="I61" s="55">
         <v>53</v>
       </c>
       <c r="J61" s="56">
-        <v>99091</v>
+        <v>80333</v>
       </c>
       <c r="K61" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L61" s="40"/>
       <c r="M61" s="40"/>
@@ -9218,7 +8465,7 @@
       <c r="BQ61" s="40"/>
       <c r="BR61" s="40"/>
       <c r="BS61" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT61" s="47">
         <v>50</v>
@@ -9247,18 +8494,24 @@
         <v>44435</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="F62" s="40" t="s">
-        <v>235</v>
+        <v>106</v>
+      </c>
+      <c r="F62" s="40">
+        <v>123456</v>
       </c>
       <c r="G62" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="H62" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H62" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I62" s="55"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="55"/>
+      <c r="J62" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K62" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L62" s="40"/>
       <c r="M62" s="40"/>
       <c r="N62" s="40"/>
@@ -9323,7 +8576,7 @@
       <c r="BQ62" s="40"/>
       <c r="BR62" s="40"/>
       <c r="BS62" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT62" s="47">
         <v>50</v>
@@ -9352,25 +8605,25 @@
         <v>44444</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="F63" s="40" t="s">
-        <v>238</v>
+        <v>106</v>
+      </c>
+      <c r="F63" s="40">
+        <v>123456</v>
       </c>
       <c r="G63" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="H63" s="55">
-        <v>7</v>
+        <v>107</v>
+      </c>
+      <c r="H63" s="55" t="s">
+        <v>108</v>
       </c>
       <c r="I63" s="55" t="s">
-        <v>373</v>
+        <v>105</v>
       </c>
       <c r="J63" s="56">
-        <v>99094</v>
+        <v>80333</v>
       </c>
       <c r="K63" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L63" s="40"/>
       <c r="M63" s="40"/>
@@ -9436,7 +8689,7 @@
       <c r="BQ63" s="40"/>
       <c r="BR63" s="40"/>
       <c r="BS63" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT63" s="47">
         <v>230</v>
@@ -9465,25 +8718,25 @@
         <v>44444</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="F64" s="40" t="s">
-        <v>241</v>
+        <v>106</v>
+      </c>
+      <c r="F64" s="40">
+        <v>123456</v>
       </c>
       <c r="G64" s="39" t="s">
-        <v>242</v>
+        <v>107</v>
       </c>
       <c r="H64" s="55" t="s">
-        <v>374</v>
+        <v>108</v>
       </c>
       <c r="I64" s="55">
         <v>8</v>
       </c>
       <c r="J64" s="56">
-        <v>99099</v>
+        <v>80333</v>
       </c>
       <c r="K64" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L64" s="40"/>
       <c r="M64" s="40"/>
@@ -9551,7 +8804,7 @@
       <c r="BQ64" s="40"/>
       <c r="BR64" s="40"/>
       <c r="BS64" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT64" s="47">
         <v>283</v>
@@ -9580,23 +8833,25 @@
         <v>44444</v>
       </c>
       <c r="E65" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="F65" s="40" t="s">
-        <v>244</v>
+        <v>106</v>
+      </c>
+      <c r="F65" s="40">
+        <v>123456</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>245</v>
+        <v>107</v>
       </c>
       <c r="H65" s="55" t="s">
-        <v>376</v>
+        <v>108</v>
       </c>
       <c r="I65" s="55">
         <v>84</v>
       </c>
-      <c r="J65" s="56"/>
+      <c r="J65" s="56">
+        <v>80333</v>
+      </c>
       <c r="K65" s="55" t="s">
-        <v>375</v>
+        <v>103</v>
       </c>
       <c r="L65" s="40"/>
       <c r="M65" s="40"/>
@@ -9685,25 +8940,25 @@
         <v>44444</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="F66" s="40" t="s">
-        <v>247</v>
+        <v>106</v>
+      </c>
+      <c r="F66" s="40">
+        <v>123456</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="H66" s="55" t="s">
-        <v>378</v>
+        <v>108</v>
       </c>
       <c r="I66" s="55">
         <v>39</v>
       </c>
       <c r="J66" s="56">
-        <v>99095</v>
+        <v>80333</v>
       </c>
       <c r="K66" s="55" t="s">
-        <v>377</v>
+        <v>103</v>
       </c>
       <c r="L66" s="40"/>
       <c r="M66" s="40"/>
@@ -9781,7 +9036,7 @@
       <c r="BQ66" s="40"/>
       <c r="BR66" s="40"/>
       <c r="BS66" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT66" s="47">
         <v>516</v>
@@ -9810,22 +9065,26 @@
         <v>44444</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="F67" s="40" t="s">
-        <v>250</v>
+        <v>106</v>
+      </c>
+      <c r="F67" s="40">
+        <v>123456</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="H67" s="55" t="s">
-        <v>379</v>
+        <v>108</v>
       </c>
       <c r="I67" s="55">
         <v>40</v>
       </c>
-      <c r="J67" s="56"/>
-      <c r="K67" s="55"/>
+      <c r="J67" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K67" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L67" s="40"/>
       <c r="M67" s="40"/>
       <c r="N67" s="40"/>
@@ -9888,7 +9147,7 @@
       <c r="BQ67" s="40"/>
       <c r="BR67" s="40"/>
       <c r="BS67" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT67" s="47">
         <v>19.5</v>
@@ -9917,25 +9176,25 @@
         <v>44444</v>
       </c>
       <c r="E68" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="F68" s="40" t="s">
-        <v>253</v>
+        <v>106</v>
+      </c>
+      <c r="F68" s="40">
+        <v>123456</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>254</v>
+        <v>107</v>
       </c>
       <c r="H68" s="55" t="s">
-        <v>380</v>
+        <v>108</v>
       </c>
       <c r="I68" s="55">
         <v>20</v>
       </c>
       <c r="J68" s="56">
-        <v>99099</v>
+        <v>80333</v>
       </c>
       <c r="K68" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L68" s="40"/>
       <c r="M68" s="40"/>
@@ -10024,18 +9283,24 @@
         <v>44444</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="F69" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F69" s="40">
+        <v>123456</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H69" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H69" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I69" s="55"/>
-      <c r="J69" s="56"/>
-      <c r="K69" s="55"/>
+      <c r="J69" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K69" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L69" s="40"/>
       <c r="M69" s="40"/>
       <c r="N69" s="40"/>
@@ -10098,7 +9363,7 @@
       <c r="BQ69" s="40"/>
       <c r="BR69" s="40"/>
       <c r="BS69" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT69" s="47">
         <v>145</v>
@@ -10127,25 +9392,23 @@
         <v>44444</v>
       </c>
       <c r="E70" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="F70" s="40" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F70" s="40"/>
       <c r="G70" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H70" s="55" t="s">
-        <v>381</v>
+        <v>108</v>
       </c>
       <c r="I70" s="55">
         <v>47</v>
       </c>
       <c r="J70" s="56">
-        <v>99092</v>
+        <v>80333</v>
       </c>
       <c r="K70" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L70" s="40"/>
       <c r="M70" s="40"/>
@@ -10219,7 +9482,7 @@
       <c r="BQ70" s="40"/>
       <c r="BR70" s="40"/>
       <c r="BS70" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT70" s="47">
         <v>162</v>
@@ -10248,18 +9511,24 @@
         <v>44444</v>
       </c>
       <c r="E71" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="F71" s="40" t="s">
-        <v>258</v>
+        <v>106</v>
+      </c>
+      <c r="F71" s="40">
+        <v>123456</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H71" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H71" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I71" s="55"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="55"/>
+      <c r="J71" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K71" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L71" s="40">
         <v>1</v>
       </c>
@@ -10326,7 +9595,7 @@
       <c r="BQ71" s="40"/>
       <c r="BR71" s="40"/>
       <c r="BS71" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT71" s="47">
         <v>157</v>
@@ -10355,24 +9624,26 @@
         <v>44444</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="F72" s="40" t="s">
-        <v>260</v>
+        <v>106</v>
+      </c>
+      <c r="F72" s="40">
+        <v>123456</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>261</v>
+        <v>107</v>
       </c>
       <c r="H72" s="55" t="s">
-        <v>383</v>
+        <v>108</v>
       </c>
       <c r="I72" s="55">
         <v>5</v>
       </c>
-      <c r="J72" s="56" t="s">
-        <v>382</v>
-      </c>
-      <c r="K72" s="55"/>
+      <c r="J72" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K72" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L72" s="40"/>
       <c r="M72" s="40"/>
       <c r="N72" s="40">
@@ -10441,7 +9712,7 @@
       <c r="BQ72" s="40"/>
       <c r="BR72" s="40"/>
       <c r="BS72" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT72" s="47">
         <v>87</v>
@@ -10470,25 +9741,25 @@
         <v>44444</v>
       </c>
       <c r="E73" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="F73" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F73" s="40">
+        <v>123456</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H73" s="55" t="s">
-        <v>385</v>
+        <v>108</v>
       </c>
       <c r="I73" s="55">
         <v>26</v>
       </c>
       <c r="J73" s="56">
-        <v>99092</v>
+        <v>80333</v>
       </c>
       <c r="K73" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L73" s="40"/>
       <c r="M73" s="40"/>
@@ -10577,25 +9848,25 @@
         <v>44444</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="F74" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F74" s="40">
+        <v>123456</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H74" s="55" t="s">
-        <v>384</v>
+        <v>108</v>
       </c>
       <c r="I74" s="55">
         <v>15</v>
       </c>
       <c r="J74" s="56">
-        <v>99097</v>
+        <v>80333</v>
       </c>
       <c r="K74" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L74" s="40"/>
       <c r="M74" s="40"/>
@@ -10659,7 +9930,7 @@
       <c r="BQ74" s="40"/>
       <c r="BR74" s="40"/>
       <c r="BS74" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT74" s="47">
         <v>225</v>
@@ -10688,25 +9959,25 @@
         <v>44448</v>
       </c>
       <c r="E75" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="F75" s="40" t="s">
-        <v>265</v>
+        <v>106</v>
+      </c>
+      <c r="F75" s="40">
+        <v>123456</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H75" s="55" t="s">
-        <v>386</v>
+        <v>108</v>
       </c>
       <c r="I75" s="55">
         <v>7</v>
       </c>
       <c r="J75" s="56">
-        <v>99095</v>
+        <v>80333</v>
       </c>
       <c r="K75" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L75" s="40"/>
       <c r="M75" s="40"/>
@@ -10770,7 +10041,7 @@
       <c r="BQ75" s="40"/>
       <c r="BR75" s="40"/>
       <c r="BS75" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT75" s="47">
         <v>25</v>
@@ -10799,18 +10070,24 @@
         <v>44456</v>
       </c>
       <c r="E76" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="F76" s="40" t="s">
-        <v>267</v>
+        <v>106</v>
+      </c>
+      <c r="F76" s="40">
+        <v>123456</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="H76" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H76" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I76" s="55"/>
-      <c r="J76" s="56"/>
-      <c r="K76" s="55"/>
+      <c r="J76" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K76" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L76" s="40"/>
       <c r="M76" s="40"/>
       <c r="N76" s="40"/>
@@ -10879,7 +10156,7 @@
       <c r="BQ76" s="40"/>
       <c r="BR76" s="40"/>
       <c r="BS76" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT76" s="47">
         <v>280</v>
@@ -10908,23 +10185,25 @@
         <v>44451</v>
       </c>
       <c r="E77" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="F77" s="40" t="s">
-        <v>270</v>
+        <v>106</v>
+      </c>
+      <c r="F77" s="40">
+        <v>123456</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="H77" s="55" t="s">
-        <v>387</v>
+        <v>108</v>
       </c>
       <c r="I77" s="55">
         <v>52</v>
       </c>
-      <c r="J77" s="56"/>
+      <c r="J77" s="56">
+        <v>80333</v>
+      </c>
       <c r="K77" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L77" s="40"/>
       <c r="M77" s="40"/>
@@ -10990,7 +10269,7 @@
       <c r="BQ77" s="40"/>
       <c r="BR77" s="40"/>
       <c r="BS77" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT77" s="47">
         <v>108</v>
@@ -11019,25 +10298,25 @@
         <v>44451</v>
       </c>
       <c r="E78" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="F78" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F78" s="40">
+        <v>123456</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>273</v>
+        <v>107</v>
       </c>
       <c r="H78" s="55" t="s">
-        <v>389</v>
+        <v>108</v>
       </c>
       <c r="I78" s="55">
         <v>7</v>
       </c>
       <c r="J78" s="56">
-        <v>99634</v>
+        <v>80333</v>
       </c>
       <c r="K78" s="55" t="s">
-        <v>388</v>
+        <v>103</v>
       </c>
       <c r="L78" s="40"/>
       <c r="M78" s="40"/>
@@ -11126,25 +10405,25 @@
         <v>44451</v>
       </c>
       <c r="E79" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="F79" s="40" t="s">
-        <v>275</v>
+        <v>106</v>
+      </c>
+      <c r="F79" s="40">
+        <v>123456</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>276</v>
+        <v>107</v>
       </c>
       <c r="H79" s="55" t="s">
-        <v>390</v>
+        <v>108</v>
       </c>
       <c r="I79" s="55">
         <v>1</v>
       </c>
       <c r="J79" s="56">
-        <v>99098</v>
+        <v>80333</v>
       </c>
       <c r="K79" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L79" s="40"/>
       <c r="M79" s="40"/>
@@ -11212,7 +10491,7 @@
       <c r="BQ79" s="40"/>
       <c r="BR79" s="40"/>
       <c r="BS79" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT79" s="47">
         <v>135</v>
@@ -11241,18 +10520,24 @@
         <v>44454</v>
       </c>
       <c r="E80" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="F80" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F80" s="40">
+        <v>123456</v>
       </c>
       <c r="G80" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H80" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H80" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I80" s="55"/>
-      <c r="J80" s="56"/>
-      <c r="K80" s="55"/>
+      <c r="J80" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K80" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L80" s="40"/>
       <c r="M80" s="40"/>
       <c r="N80" s="40"/>
@@ -11321,7 +10606,7 @@
       <c r="BQ80" s="40"/>
       <c r="BR80" s="40"/>
       <c r="BS80" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT80" s="47">
         <v>240</v>
@@ -11350,18 +10635,24 @@
         <v>44454</v>
       </c>
       <c r="E81" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="F81" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F81" s="40">
+        <v>123456</v>
       </c>
       <c r="G81" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H81" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H81" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I81" s="55"/>
-      <c r="J81" s="56"/>
-      <c r="K81" s="55"/>
+      <c r="J81" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K81" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L81" s="40"/>
       <c r="M81" s="40"/>
       <c r="N81" s="40"/>
@@ -11426,7 +10717,7 @@
       <c r="BQ81" s="40"/>
       <c r="BR81" s="40"/>
       <c r="BS81" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT81" s="47">
         <v>460</v>
@@ -11455,18 +10746,24 @@
         <v>44454</v>
       </c>
       <c r="E82" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="F82" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F82" s="40">
+        <v>123456</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H82" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H82" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I82" s="55"/>
-      <c r="J82" s="56"/>
-      <c r="K82" s="55"/>
+      <c r="J82" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K82" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L82" s="40"/>
       <c r="M82" s="40"/>
       <c r="N82" s="40"/>
@@ -11531,7 +10828,7 @@
       <c r="BQ82" s="40"/>
       <c r="BR82" s="40"/>
       <c r="BS82" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT82" s="47">
         <v>230</v>
@@ -11560,18 +10857,24 @@
         <v>44455</v>
       </c>
       <c r="E83" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="F83" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F83" s="40">
+        <v>123456</v>
       </c>
       <c r="G83" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H83" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H83" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I83" s="55"/>
-      <c r="J83" s="56"/>
-      <c r="K83" s="55"/>
+      <c r="J83" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K83" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L83" s="40"/>
       <c r="M83" s="40"/>
       <c r="N83" s="40"/>
@@ -11661,25 +10964,25 @@
         <v>44459</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="F84" s="40" t="s">
-        <v>278</v>
+        <v>106</v>
+      </c>
+      <c r="F84" s="40">
+        <v>123456</v>
       </c>
       <c r="G84" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H84" s="55" t="s">
-        <v>391</v>
+        <v>108</v>
       </c>
       <c r="I84" s="55">
         <v>13</v>
       </c>
       <c r="J84" s="56">
-        <v>99718</v>
+        <v>80333</v>
       </c>
       <c r="K84" s="55" t="s">
-        <v>392</v>
+        <v>103</v>
       </c>
       <c r="L84" s="40"/>
       <c r="M84" s="40"/>
@@ -11768,23 +11071,23 @@
         <v>44458</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="F85" s="40" t="s">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F85" s="40"/>
       <c r="G85" s="39" t="s">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="H85" s="55" t="s">
-        <v>393</v>
+        <v>108</v>
       </c>
       <c r="I85" s="55">
         <v>19</v>
       </c>
-      <c r="J85" s="56"/>
+      <c r="J85" s="56">
+        <v>80333</v>
+      </c>
       <c r="K85" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L85" s="40"/>
       <c r="M85" s="40"/>
@@ -11850,7 +11153,7 @@
       <c r="BQ85" s="40"/>
       <c r="BR85" s="40"/>
       <c r="BS85" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT85" s="51">
         <v>0</v>
@@ -11879,25 +11182,25 @@
         <v>44465</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="F86" s="40" t="s">
-        <v>290</v>
+        <v>106</v>
+      </c>
+      <c r="F86" s="40">
+        <v>123456</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H86" s="55" t="s">
-        <v>394</v>
+        <v>108</v>
       </c>
       <c r="I86" s="55">
         <v>3</v>
       </c>
       <c r="J86" s="56">
-        <v>99094</v>
+        <v>80333</v>
       </c>
       <c r="K86" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L86" s="40"/>
       <c r="M86" s="40"/>
@@ -11969,7 +11272,7 @@
       <c r="BQ86" s="40"/>
       <c r="BR86" s="40"/>
       <c r="BS86" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT86" s="47">
         <v>185</v>
@@ -11998,25 +11301,23 @@
         <v>44464</v>
       </c>
       <c r="E87" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="F87" s="40" t="s">
-        <v>286</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F87" s="40"/>
       <c r="G87" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H87" s="55" t="s">
-        <v>395</v>
+        <v>108</v>
       </c>
       <c r="I87" s="55">
         <v>13</v>
       </c>
       <c r="J87" s="56">
-        <v>99098</v>
+        <v>80333</v>
       </c>
       <c r="K87" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L87" s="40"/>
       <c r="M87" s="40"/>
@@ -12080,7 +11381,7 @@
       <c r="BQ87" s="40"/>
       <c r="BR87" s="40"/>
       <c r="BS87" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT87" s="47">
         <v>365</v>
@@ -12109,25 +11410,25 @@
         <v>44464</v>
       </c>
       <c r="E88" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="F88" s="40" t="s">
-        <v>292</v>
+        <v>106</v>
+      </c>
+      <c r="F88" s="40">
+        <v>123456</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>293</v>
+        <v>107</v>
       </c>
       <c r="H88" s="55" t="s">
-        <v>396</v>
+        <v>108</v>
       </c>
       <c r="I88" s="55">
         <v>113</v>
       </c>
       <c r="J88" s="56">
-        <v>99098</v>
+        <v>80333</v>
       </c>
       <c r="K88" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L88" s="40"/>
       <c r="M88" s="40"/>
@@ -12195,7 +11496,7 @@
       <c r="BQ88" s="40"/>
       <c r="BR88" s="40"/>
       <c r="BS88" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT88" s="47">
         <v>1699</v>
@@ -12224,25 +11525,25 @@
         <v>44464</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="F89" s="40" t="s">
-        <v>288</v>
+        <v>106</v>
+      </c>
+      <c r="F89" s="40">
+        <v>123456</v>
       </c>
       <c r="G89" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H89" s="55" t="s">
-        <v>397</v>
+        <v>108</v>
       </c>
       <c r="I89" s="55">
         <v>16</v>
       </c>
       <c r="J89" s="56">
-        <v>99082</v>
+        <v>80333</v>
       </c>
       <c r="K89" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L89" s="40"/>
       <c r="M89" s="40">
@@ -12337,25 +11638,25 @@
         <v>44469</v>
       </c>
       <c r="E90" s="39" t="s">
-        <v>294</v>
-      </c>
-      <c r="F90" s="40" t="s">
-        <v>295</v>
+        <v>106</v>
+      </c>
+      <c r="F90" s="40">
+        <v>123456</v>
       </c>
       <c r="G90" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H90" s="55" t="s">
-        <v>398</v>
+        <v>108</v>
       </c>
       <c r="I90" s="55">
         <v>3</v>
       </c>
       <c r="J90" s="56">
-        <v>99094</v>
+        <v>80333</v>
       </c>
       <c r="K90" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L90" s="40"/>
       <c r="M90" s="40"/>
@@ -12435,7 +11736,7 @@
       <c r="BQ90" s="40"/>
       <c r="BR90" s="40"/>
       <c r="BS90" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT90" s="47">
         <v>243</v>
@@ -12464,25 +11765,25 @@
         <v>44476</v>
       </c>
       <c r="E91" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="F91" s="40" t="s">
-        <v>297</v>
+        <v>106</v>
+      </c>
+      <c r="F91" s="40">
+        <v>123456</v>
       </c>
       <c r="G91" s="39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H91" s="55" t="s">
-        <v>399</v>
+        <v>108</v>
       </c>
       <c r="I91" s="55">
         <v>12</v>
       </c>
       <c r="J91" s="56">
-        <v>99089</v>
+        <v>80333</v>
       </c>
       <c r="K91" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L91" s="40"/>
       <c r="M91" s="40"/>
@@ -12573,23 +11874,25 @@
         <v>44472</v>
       </c>
       <c r="E92" s="39" t="s">
-        <v>298</v>
-      </c>
-      <c r="F92" s="40" t="s">
-        <v>299</v>
+        <v>106</v>
+      </c>
+      <c r="F92" s="40">
+        <v>123456</v>
       </c>
       <c r="G92" s="39" t="s">
-        <v>300</v>
+        <v>107</v>
       </c>
       <c r="H92" s="55" t="s">
-        <v>339</v>
+        <v>108</v>
       </c>
       <c r="I92" s="55">
         <v>3</v>
       </c>
-      <c r="J92" s="56"/>
+      <c r="J92" s="56">
+        <v>80333</v>
+      </c>
       <c r="K92" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L92" s="40"/>
       <c r="M92" s="40"/>
@@ -12653,7 +11956,7 @@
       <c r="BQ92" s="40"/>
       <c r="BR92" s="40"/>
       <c r="BS92" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT92" s="50">
         <v>1274</v>
@@ -12682,18 +11985,24 @@
         <v>44486</v>
       </c>
       <c r="E93" s="39" t="s">
-        <v>301</v>
-      </c>
-      <c r="F93" s="40" t="s">
-        <v>114</v>
+        <v>106</v>
+      </c>
+      <c r="F93" s="40">
+        <v>123456</v>
       </c>
       <c r="G93" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H93" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H93" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I93" s="55"/>
-      <c r="J93" s="56"/>
-      <c r="K93" s="55"/>
+      <c r="J93" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K93" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L93" s="40"/>
       <c r="M93" s="40"/>
       <c r="N93" s="40"/>
@@ -12758,7 +12067,7 @@
       <c r="BQ93" s="40"/>
       <c r="BR93" s="40"/>
       <c r="BS93" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT93" s="47">
         <v>109.5</v>
@@ -12787,18 +12096,24 @@
         <v>44486</v>
       </c>
       <c r="E94" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="F94" s="40" t="s">
-        <v>303</v>
+        <v>106</v>
+      </c>
+      <c r="F94" s="40">
+        <v>123456</v>
       </c>
       <c r="G94" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="H94" s="55"/>
+        <v>107</v>
+      </c>
+      <c r="H94" s="55" t="s">
+        <v>108</v>
+      </c>
       <c r="I94" s="55"/>
-      <c r="J94" s="56"/>
-      <c r="K94" s="55"/>
+      <c r="J94" s="56">
+        <v>80333</v>
+      </c>
+      <c r="K94" s="55" t="s">
+        <v>103</v>
+      </c>
       <c r="L94" s="40"/>
       <c r="M94" s="40"/>
       <c r="N94" s="40"/>
@@ -12861,7 +12176,7 @@
       <c r="BQ94" s="40"/>
       <c r="BR94" s="40"/>
       <c r="BS94" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT94" s="47">
         <v>167.5</v>
@@ -12890,23 +12205,25 @@
         <v>44486</v>
       </c>
       <c r="E95" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="F95" s="40" t="s">
-        <v>306</v>
+        <v>106</v>
+      </c>
+      <c r="F95" s="40">
+        <v>123456</v>
       </c>
       <c r="G95" s="39" t="s">
-        <v>307</v>
+        <v>107</v>
       </c>
       <c r="H95" s="55" t="s">
-        <v>338</v>
+        <v>108</v>
       </c>
       <c r="I95" s="55">
         <v>53</v>
       </c>
-      <c r="J95" s="56"/>
+      <c r="J95" s="56">
+        <v>80333</v>
+      </c>
       <c r="K95" s="55" t="s">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L95" s="40"/>
       <c r="M95" s="40"/>
@@ -12970,7 +12287,7 @@
       <c r="BQ95" s="40"/>
       <c r="BR95" s="40"/>
       <c r="BS95" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT95" s="47">
         <v>165</v>
@@ -12999,25 +12316,25 @@
         <v>44493</v>
       </c>
       <c r="E96" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="F96" s="40" t="s">
-        <v>309</v>
+        <v>106</v>
+      </c>
+      <c r="F96" s="40">
+        <v>123456</v>
       </c>
       <c r="G96" s="39" t="s">
-        <v>310</v>
+        <v>107</v>
       </c>
       <c r="H96" s="55" t="s">
-        <v>337</v>
+        <v>108</v>
       </c>
       <c r="I96" s="55">
         <v>8</v>
       </c>
       <c r="J96" s="56">
-        <v>99085</v>
+        <v>80333</v>
       </c>
       <c r="K96" s="55" t="s">
-        <v>336</v>
+        <v>103</v>
       </c>
       <c r="L96" s="40"/>
       <c r="M96" s="40"/>
@@ -13085,7 +12402,7 @@
       <c r="BQ96" s="40"/>
       <c r="BR96" s="40"/>
       <c r="BS96" s="39" t="s">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="BT96" s="47">
         <v>100</v>
@@ -13114,25 +12431,25 @@
         <v>44500</v>
       </c>
       <c r="E97" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="F97" s="40" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="F97" s="40">
+        <v>123456</v>
       </c>
       <c r="G97" s="39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H97" s="55" t="s">
-        <v>314</v>
+        <v>108</v>
       </c>
       <c r="I97" s="55">
         <v>28</v>
       </c>
       <c r="J97" s="56">
-        <v>99091</v>
+        <v>80333</v>
       </c>
       <c r="K97" s="55" t="s">
-        <v>317</v>
+        <v>103</v>
       </c>
       <c r="L97" s="40"/>
       <c r="M97" s="40"/>
@@ -13198,7 +12515,7 @@
       <c r="BQ97" s="40"/>
       <c r="BR97" s="40"/>
       <c r="BS97" s="39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BT97" s="47">
         <v>300</v>
@@ -13227,13 +12544,13 @@
         <v>44514</v>
       </c>
       <c r="E98" s="39" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="F98" s="40" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="G98" s="39" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="H98" s="55"/>
       <c r="I98" s="55"/>
@@ -13309,7 +12626,7 @@
       <c r="BQ98" s="40"/>
       <c r="BR98" s="40"/>
       <c r="BS98" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BT98" s="47">
         <v>135</v>
@@ -13334,14 +12651,14 @@
         <v>72686</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="59"/>
-      <c r="K99" s="58"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="57"/>
+      <c r="J99" s="58"/>
+      <c r="K99" s="57"/>
       <c r="L99" s="4">
         <v>1</v>
       </c>
